--- a/BackTest/2019-10-31 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-31 BackTest CTXC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>6.100000000000009</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-21.31147540983599</v>
+      </c>
       <c r="L12" t="n">
         <v>91.45</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>6.100000000000009</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-9.433962264150923</v>
+      </c>
       <c r="L13" t="n">
         <v>91.31999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>6.100000000000009</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
       <c r="L14" t="n">
         <v>91.27</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>6.100000000000009</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>90.97999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>6.100000000000009</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
       <c r="L16" t="n">
         <v>90.92999999999998</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>6.100000000000009</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
       <c r="L17" t="n">
         <v>90.88999999999997</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>6.100000000000009</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>90.84999999999997</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>6.300000000000011</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-100</v>
+      </c>
       <c r="L19" t="n">
         <v>90.80999999999997</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>6.300000000000011</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-100</v>
+      </c>
       <c r="L20" t="n">
         <v>90.76999999999997</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>6.5</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>90.71999999999997</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>6.600000000000009</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-100</v>
+      </c>
       <c r="L22" t="n">
         <v>90.66999999999997</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>6.800000000000011</v>
       </c>
       <c r="K23" t="n">
-        <v>-29.41176470588231</v>
+        <v>-100</v>
       </c>
       <c r="L23" t="n">
         <v>90.59999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>6.90000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>-18.03278688524574</v>
+        <v>-74.99999999999822</v>
       </c>
       <c r="L24" t="n">
         <v>90.53999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>7.000000000000028</v>
       </c>
       <c r="K25" t="n">
-        <v>-94.73684210526274</v>
+        <v>-77.77777777777636</v>
       </c>
       <c r="L25" t="n">
         <v>90.47</v>
@@ -1564,7 +1586,7 @@
         <v>7.000000000000028</v>
       </c>
       <c r="K26" t="n">
-        <v>-85.7142857142847</v>
+        <v>-77.77777777777636</v>
       </c>
       <c r="L26" t="n">
         <v>90.40000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>7.200000000000031</v>
       </c>
       <c r="K27" t="n">
-        <v>-59.99999999999924</v>
+        <v>-45.45454545454452</v>
       </c>
       <c r="L27" t="n">
         <v>90.34999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>7.700000000000031</v>
       </c>
       <c r="K28" t="n">
-        <v>-20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L28" t="n">
         <v>90.34999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>8.200000000000031</v>
       </c>
       <c r="K29" t="n">
-        <v>-30.43478260869544</v>
+        <v>-15.78947368421021</v>
       </c>
       <c r="L29" t="n">
         <v>90.31999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>10.70000000000003</v>
       </c>
       <c r="K30" t="n">
-        <v>37.49999999999974</v>
+        <v>57.14285714285652</v>
       </c>
       <c r="L30" t="n">
         <v>90.53999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>11.70000000000003</v>
       </c>
       <c r="K31" t="n">
-        <v>15.78947368421029</v>
+        <v>29.41176470588222</v>
       </c>
       <c r="L31" t="n">
         <v>90.67999999999998</v>
@@ -1860,7 +1882,7 @@
         <v>12.90000000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>32.35294117647051</v>
+        <v>47.54098360655729</v>
       </c>
       <c r="L32" t="n">
         <v>90.94999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>15.30000000000004</v>
       </c>
       <c r="K33" t="n">
-        <v>-2.173913043478284</v>
+        <v>4.761904761904649</v>
       </c>
       <c r="L33" t="n">
         <v>90.99999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.249999999999925</v>
+        <v>1.149425287356419</v>
       </c>
       <c r="L34" t="n">
         <v>90.99999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.249999999999925</v>
+        <v>1.149425287356419</v>
       </c>
       <c r="L35" t="n">
         <v>91.00999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.249999999999925</v>
+        <v>-1.176470588235227</v>
       </c>
       <c r="L36" t="n">
         <v>91.02</v>
@@ -2115,7 +2137,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.249999999999925</v>
+        <v>-7.499999999999929</v>
       </c>
       <c r="L37" t="n">
         <v>91.01000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>16.60000000000004</v>
       </c>
       <c r="K38" t="n">
-        <v>-14.28571428571425</v>
+        <v>-11.9047619047619</v>
       </c>
       <c r="L38" t="n">
         <v>90.86</v>
@@ -2217,7 +2239,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.28571428571425</v>
+        <v>-60.65573770491799</v>
       </c>
       <c r="L39" t="n">
         <v>90.74000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>16.80000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>-14.28571428571425</v>
+        <v>-52.9411764705882</v>
       </c>
       <c r="L40" t="n">
         <v>90.37000000000002</v>
@@ -2319,7 +2341,7 @@
         <v>18.80000000000004</v>
       </c>
       <c r="K41" t="n">
-        <v>5.691056910568995</v>
+        <v>-32.20338983050854</v>
       </c>
       <c r="L41" t="n">
         <v>90.30000000000003</v>
@@ -2370,7 +2392,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7751937984496773</v>
+        <v>-4.761904761904504</v>
       </c>
       <c r="L42" t="n">
         <v>90.04000000000002</v>
@@ -2421,7 +2443,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K43" t="n">
-        <v>2.362204724409535</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L43" t="n">
         <v>90.02000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>19.50000000000003</v>
       </c>
       <c r="K44" t="n">
-        <v>1.587301587301609</v>
+        <v>5.263157894736921</v>
       </c>
       <c r="L44" t="n">
         <v>90.04000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>3.174603174603221</v>
+        <v>7.692307692307636</v>
       </c>
       <c r="L45" t="n">
         <v>90.07000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>2.362204724409541</v>
+        <v>5.000000000000089</v>
       </c>
       <c r="L46" t="n">
         <v>90.09</v>
@@ -2625,7 +2647,7 @@
         <v>20.80000000000003</v>
       </c>
       <c r="K47" t="n">
-        <v>-7.352941176470591</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>89.99999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>20.80000000000003</v>
       </c>
       <c r="K48" t="n">
-        <v>-11.45038167938932</v>
+        <v>5.000000000000089</v>
       </c>
       <c r="L48" t="n">
         <v>89.99999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>23.80000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>12.82051282051282</v>
+        <v>45.71428571428584</v>
       </c>
       <c r="L49" t="n">
         <v>90.31999999999998</v>
@@ -2778,7 +2800,7 @@
         <v>25.00000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.88811188811191</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>90.51999999999998</v>
@@ -2829,7 +2851,7 @@
         <v>25.00000000000003</v>
       </c>
       <c r="K51" t="n">
-        <v>-5.263157894736865</v>
+        <v>12.72727272727252</v>
       </c>
       <c r="L51" t="n">
         <v>90.51999999999998</v>
@@ -2880,7 +2902,7 @@
         <v>25.10000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-16.39344262295084</v>
+        <v>10.71428571428562</v>
       </c>
       <c r="L52" t="n">
         <v>90.57999999999998</v>
@@ -2931,7 +2953,7 @@
         <v>26.30000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.272727272727256</v>
+        <v>-8.823529411764836</v>
       </c>
       <c r="L53" t="n">
         <v>90.51999999999998</v>
@@ -2982,7 +3004,7 @@
         <v>26.30000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>-3.773584905660433</v>
+        <v>-10.44776119402989</v>
       </c>
       <c r="L54" t="n">
         <v>90.45999999999998</v>
@@ -3033,7 +3055,7 @@
         <v>27.90000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>9.836065573770512</v>
+        <v>12.19512195121949</v>
       </c>
       <c r="L55" t="n">
         <v>90.54999999999998</v>
@@ -3084,7 +3106,7 @@
         <v>27.90000000000003</v>
       </c>
       <c r="K56" t="n">
-        <v>9.836065573770512</v>
+        <v>29.57746478873248</v>
       </c>
       <c r="L56" t="n">
         <v>90.64999999999998</v>
@@ -3135,7 +3157,7 @@
         <v>29.30000000000004</v>
       </c>
       <c r="K57" t="n">
-        <v>-1.470588235294138</v>
+        <v>8.235294117647078</v>
       </c>
       <c r="L57" t="n">
         <v>90.71999999999998</v>
@@ -3186,7 +3208,7 @@
         <v>29.60000000000004</v>
       </c>
       <c r="K58" t="n">
-        <v>3.076923076923121</v>
+        <v>-44.82758620689636</v>
       </c>
       <c r="L58" t="n">
         <v>90.75999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>29.60000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>4.687500000000068</v>
+        <v>-30.43478260869541</v>
       </c>
       <c r="L59" t="n">
         <v>90.5</v>
@@ -3288,7 +3310,7 @@
         <v>31.70000000000003</v>
       </c>
       <c r="K60" t="n">
-        <v>18.12080536912755</v>
+        <v>10.44776119402989</v>
       </c>
       <c r="L60" t="n">
         <v>90.56999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>34.50000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.37579617834392</v>
+        <v>-21.27659574468084</v>
       </c>
       <c r="L61" t="n">
         <v>90.35999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>36.00000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>0.6060606060605717</v>
+        <v>7.216494845360852</v>
       </c>
       <c r="L62" t="n">
         <v>90.30999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>38.00000000000003</v>
       </c>
       <c r="K63" t="n">
-        <v>11.35135135135132</v>
+        <v>23.07692307692309</v>
       </c>
       <c r="L63" t="n">
         <v>90.58</v>
@@ -3492,7 +3514,7 @@
         <v>40.40000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>-1.435406698564647</v>
+        <v>-10.40000000000009</v>
       </c>
       <c r="L64" t="n">
         <v>90.61</v>
@@ -3543,7 +3565,7 @@
         <v>40.50000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>-2.392344497607655</v>
+        <v>-11.11111111111116</v>
       </c>
       <c r="L65" t="n">
         <v>90.47</v>
@@ -3594,7 +3616,7 @@
         <v>40.60000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>-2.392344497607655</v>
+        <v>-0.8849557522123405</v>
       </c>
       <c r="L66" t="n">
         <v>90.32000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>42.50000000000001</v>
       </c>
       <c r="K67" t="n">
-        <v>11.52073732718895</v>
+        <v>16.27906976744185</v>
       </c>
       <c r="L67" t="n">
         <v>90.5</v>
@@ -3696,7 +3718,7 @@
         <v>42.50000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>11.52073732718895</v>
+        <v>16.27906976744185</v>
       </c>
       <c r="L68" t="n">
         <v>90.70999999999999</v>
@@ -3747,7 +3769,7 @@
         <v>42.70000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>-3.70370370370372</v>
+        <v>-1.818181818181846</v>
       </c>
       <c r="L69" t="n">
         <v>90.89999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>44.10000000000001</v>
       </c>
       <c r="K70" t="n">
-        <v>-4.712041884816714</v>
+        <v>12.50000000000006</v>
       </c>
       <c r="L70" t="n">
         <v>90.73999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>44.10000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>-4.712041884816714</v>
+        <v>-3.703703703703678</v>
       </c>
       <c r="L71" t="n">
         <v>90.86</v>
@@ -3900,7 +3922,7 @@
         <v>44.10000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>-4.210526315789462</v>
+        <v>-37.70491803278696</v>
       </c>
       <c r="L72" t="n">
         <v>90.83000000000001</v>
@@ -3951,7 +3973,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>0.5524861878453515</v>
+        <v>-4.999999999999751</v>
       </c>
       <c r="L73" t="n">
         <v>90.57000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>44.40000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>0.5524861878453515</v>
+        <v>-2.564102564102433</v>
       </c>
       <c r="L74" t="n">
         <v>90.55</v>
@@ -4053,7 +4075,7 @@
         <v>45.10000000000001</v>
       </c>
       <c r="K75" t="n">
-        <v>-12.79069767441864</v>
+        <v>-15.55555555555567</v>
       </c>
       <c r="L75" t="n">
         <v>90.47</v>
@@ -4104,7 +4126,7 @@
         <v>46.30000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>-18.47826086956527</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>90.28</v>
@@ -4155,7 +4177,7 @@
         <v>46.30000000000001</v>
       </c>
       <c r="K77" t="n">
-        <v>-11.76470588235296</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>89.90000000000001</v>

--- a/BackTest/2019-10-31 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-31 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2923.818165723616</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,19 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>91.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91.8</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +554,23 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>92</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +595,23 @@
         <v>26772.89986572362</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>92</v>
+      </c>
+      <c r="J6" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +636,19 @@
         <v>27772.89986572362</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>92.09999999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>92.09999999999999</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +673,23 @@
         <v>28019.71466572362</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>92.40000000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +714,23 @@
         <v>54148.69746572361</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>92.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +757,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +790,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +823,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +856,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +889,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +922,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +953,15 @@
         <v>124995.9185657236</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +986,15 @@
         <v>230597.5192657236</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1021,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1054,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1087,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1118,15 @@
         <v>126085.7147657236</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1153,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1186,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1217,15 @@
         <v>137153.9359657236</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1250,15 @@
         <v>137153.9359657236</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1283,15 @@
         <v>135834.4891657236</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1316,15 @@
         <v>135854.4891657236</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1351,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1384,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1417,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1450,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1481,15 @@
         <v>152596.5512657236</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1514,15 @@
         <v>152585.5512657236</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1547,15 @@
         <v>152563.5512657236</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1580,15 @@
         <v>114570.9138657236</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1615,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1648,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1681,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1714,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1747,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1780,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1813,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1846,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1879,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1912,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1945,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1978,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2011,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2044,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2077,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2110,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2143,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2176,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2209,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2242,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2275,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2308,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2341,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2374,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2407,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2440,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2473,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2506,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2539,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2572,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2605,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2638,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2671,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2704,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2737,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2770,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2803,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2836,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2869,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2902,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2935,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2968,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3001,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3034,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3067,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3100,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3133,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3166,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3199,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3232,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3265,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3298,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3331,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3364,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3397,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3430,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3463,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3496,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3529,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3562,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3595,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3628,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3661,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3694,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,24 +3725,21 @@
         <v>6217.585365723604</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4028,20 +3766,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4068,20 +3803,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4108,20 +3840,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4148,20 +3877,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4188,20 +3914,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4228,20 +3951,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4268,20 +3988,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4306,24 +4023,21 @@
         <v>11713.5882657236</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
         <v>89.3</v>
       </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4350,20 +4064,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4390,20 +4101,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4428,24 +4136,21 @@
         <v>-27643.0436342764</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>91.09999999999999</v>
       </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4472,20 +4177,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4510,24 +4212,21 @@
         <v>-28811.1181342764</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
         <v>89.8</v>
       </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4552,24 +4251,21 @@
         <v>-23757.1181342764</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
         <v>89.8</v>
       </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4594,24 +4290,21 @@
         <v>-23757.1181342764</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4636,22 +4329,21 @@
         <v>-37526.6462342764</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4676,24 +4368,21 @@
         <v>-37527.1590342764</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
         <v>90</v>
       </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4718,24 +4407,21 @@
         <v>-37527.1590342764</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
         <v>89.7</v>
       </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4760,24 +4446,21 @@
         <v>-24802.18473427639</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
         <v>89.7</v>
       </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4802,24 +4485,21 @@
         <v>-29187.54533427639</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
         <v>91.8</v>
       </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4844,24 +4524,21 @@
         <v>-14237.54533427639</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
         <v>89</v>
       </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4886,24 +4563,21 @@
         <v>19079.08076572361</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
         <v>90.5</v>
       </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4928,24 +4602,21 @@
         <v>13479.08076572361</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
         <v>92.5</v>
       </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4970,24 +4641,21 @@
         <v>12781.08976572361</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5012,26 +4680,23 @@
         <v>6281.089765723607</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
         <v>90</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-31 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2923.818165723616</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,14 +517,10 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>91.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>92</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>26772.89986572362</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>92</v>
-      </c>
-      <c r="J6" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,14 +616,10 @@
         <v>27772.89986572362</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>92.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -673,19 +649,11 @@
         <v>28019.71466572362</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,19 +682,11 @@
         <v>54148.69746572361</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -953,7 +913,7 @@
         <v>124995.9185657236</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -986,7 +946,7 @@
         <v>230597.5192657236</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1118,7 +1078,7 @@
         <v>126085.7147657236</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1217,7 +1177,7 @@
         <v>137153.9359657236</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1250,7 +1210,7 @@
         <v>137153.9359657236</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1283,7 +1243,7 @@
         <v>135834.4891657236</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1316,7 +1276,7 @@
         <v>135854.4891657236</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1481,7 +1441,7 @@
         <v>152596.5512657236</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1514,7 +1474,7 @@
         <v>152585.5512657236</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1547,7 +1507,7 @@
         <v>152563.5512657236</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1580,7 +1540,7 @@
         <v>114570.9138657236</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1613,7 +1573,7 @@
         <v>122063.2873657236</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1646,7 +1606,7 @@
         <v>122051.2873657236</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1679,7 +1639,7 @@
         <v>94546.3064657236</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1712,7 +1672,7 @@
         <v>94743.3420657236</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1745,7 +1705,7 @@
         <v>104797.9616657236</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1778,7 +1738,7 @@
         <v>112107.0008657236</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1811,7 +1771,7 @@
         <v>111811.3121657236</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1877,7 +1837,7 @@
         <v>113871.7684657236</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2207,7 +2167,7 @@
         <v>145532.6660657236</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2273,7 +2233,7 @@
         <v>92240.36616572361</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2306,7 +2266,7 @@
         <v>88168.78286572361</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2339,7 +2299,7 @@
         <v>38319.49406572361</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2372,7 +2332,7 @@
         <v>38319.49406572361</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2405,7 +2365,7 @@
         <v>46660.6298657236</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2438,7 +2398,7 @@
         <v>46660.6298657236</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2471,7 +2431,7 @@
         <v>46660.6298657236</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2504,7 +2464,7 @@
         <v>46304.91286572361</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2537,7 +2497,7 @@
         <v>53333.6750657236</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2603,7 +2563,7 @@
         <v>45285.1942657236</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3725,543 +3685,509 @@
         <v>6217.585365723604</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C101" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F101" t="n">
+        <v>686.2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5531.385365723604</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5766.1881</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5531.385365723604</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5531.385365723604</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5552.385365723604</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1346.3054</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4206.079965723604</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="C106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4855.0789</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-648.9989342763965</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3423.8072</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-648.9989342763965</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12362.5872</v>
+      </c>
+      <c r="G108" t="n">
+        <v>11713.5882657236</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11692.5882657236</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D110" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>21</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11692.5882657236</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>91</v>
+      </c>
+      <c r="D111" t="n">
+        <v>91</v>
+      </c>
+      <c r="E111" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>39335.6319</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-27643.0436342764</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1168.0745</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-28811.1181342764</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>91</v>
+      </c>
+      <c r="J112" t="n">
+        <v>91</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5497.0197</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-28811.1181342764</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J113" t="n">
+        <v>91</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5054</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-23757.1181342764</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="J114" t="n">
+        <v>91</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F101" t="n">
-        <v>686.2</v>
-      </c>
-      <c r="G101" t="n">
-        <v>5531.385365723604</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C102" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D102" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E102" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5766.1881</v>
-      </c>
-      <c r="G102" t="n">
-        <v>5531.385365723604</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F103" t="n">
-        <v>7999</v>
-      </c>
-      <c r="G103" t="n">
-        <v>5531.385365723604</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>21</v>
-      </c>
-      <c r="G104" t="n">
-        <v>5552.385365723604</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C105" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D105" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E105" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1346.3054</v>
-      </c>
-      <c r="G105" t="n">
-        <v>4206.079965723604</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="C106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="D106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="E106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4855.0789</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-648.9989342763965</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3423.8072</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-648.9989342763965</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="C108" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="E108" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="F108" t="n">
-        <v>12362.5872</v>
-      </c>
-      <c r="G108" t="n">
-        <v>11713.5882657236</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C109" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="D109" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="E109" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F109" t="n">
-        <v>21</v>
-      </c>
-      <c r="G109" t="n">
-        <v>11692.5882657236</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C110" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="D110" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="E110" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F110" t="n">
-        <v>21</v>
-      </c>
-      <c r="G110" t="n">
-        <v>11692.5882657236</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>91</v>
-      </c>
-      <c r="D111" t="n">
-        <v>91</v>
-      </c>
-      <c r="E111" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="F111" t="n">
-        <v>39335.6319</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-27643.0436342764</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="C112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="D112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="E112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1168.0745</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-28811.1181342764</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="C113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="D113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="E113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F113" t="n">
-        <v>5497.0197</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-28811.1181342764</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C114" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="E114" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5054</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-23757.1181342764</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4290,12 +4216,14 @@
         <v>-23757.1181342764</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>91</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4329,12 +4257,14 @@
         <v>-37526.6462342764</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>91</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4368,12 +4298,14 @@
         <v>-37527.1590342764</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>90</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>91</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4407,12 +4339,14 @@
         <v>-37527.1590342764</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>89.7</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>91</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,12 +4380,14 @@
         <v>-24802.18473427639</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>89.7</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>91</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,12 +4421,14 @@
         <v>-29187.54533427639</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>91.8</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>91</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4524,12 +4462,14 @@
         <v>-14237.54533427639</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>89</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>91</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,12 +4503,14 @@
         <v>19079.08076572361</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>90.5</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>91</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4602,12 +4544,14 @@
         <v>13479.08076572361</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>92.5</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>91</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4641,12 +4585,14 @@
         <v>12781.08976572361</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>90.09999999999999</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>91</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,12 +4626,14 @@
         <v>6281.089765723607</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>90</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>91</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4697,6 +4645,6 @@
       <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-31 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>26772.89986572362</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>28019.71466572362</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>54148.69746572361</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>79173.80166572361</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>108425.6079657236</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>106925.6079657236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>152563.5512657236</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>114570.9138657236</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>122063.2873657236</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>122051.2873657236</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>94546.3064657236</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>94743.3420657236</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>104797.9616657236</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>112107.0008657236</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>111811.3121657236</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>113871.7684657236</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>145532.6660657236</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>92240.36616572361</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>88168.78286572361</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>38319.49406572361</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>38319.49406572361</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>46660.6298657236</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>46660.6298657236</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>46660.6298657236</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>46304.91286572361</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>53333.6750657236</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>45285.1942657236</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3619,10 +3619,14 @@
         <v>-16132.7842342764</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>89.3</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3652,11 +3656,19 @@
         <v>-16132.7842342764</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="J99" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3697,19 @@
         <v>6217.585365723604</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="J100" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3741,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3780,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3819,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3858,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3897,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3936,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3972,19 @@
         <v>-648.9989342763965</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3957,7 +4021,11 @@
       <c r="J108" t="n">
         <v>89.3</v>
       </c>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3994,7 +4062,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4033,7 +4101,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4064,11 +4132,19 @@
         <v>-27643.0436342764</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="J111" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4097,15 +4173,17 @@
         <v>-28811.1181342764</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>91</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
+        <v>89.3</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4140,11 +4218,11 @@
         <v>89.8</v>
       </c>
       <c r="J113" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4175,17 +4253,15 @@
         <v>-23757.1181342764</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>89.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4222,7 +4298,7 @@
         <v>91.40000000000001</v>
       </c>
       <c r="J115" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4257,13 +4333,11 @@
         <v>-37526.6462342764</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>91.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4298,13 +4372,11 @@
         <v>-37527.1590342764</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4339,13 +4411,11 @@
         <v>-37527.1590342764</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>89.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4386,7 +4456,7 @@
         <v>89.7</v>
       </c>
       <c r="J119" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4421,13 +4491,11 @@
         <v>-29187.54533427639</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>91.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4462,13 +4530,11 @@
         <v>-14237.54533427639</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4503,13 +4569,11 @@
         <v>19079.08076572361</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>90.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4544,13 +4608,11 @@
         <v>13479.08076572361</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>92.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4585,13 +4647,11 @@
         <v>12781.08976572361</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>90.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4626,13 +4686,11 @@
         <v>6281.089765723607</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>90</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>91</v>
+        <v>89.3</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4645,6 +4703,6 @@
       <c r="M125" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-31 BackTest CTXC.xlsx
@@ -517,7 +517,7 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>24029.57756572362</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>26772.89986572362</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>28019.71466572362</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>54148.69746572361</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>79173.80166572361</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>108425.6079657236</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>106925.6079657236</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>128605.9716657236</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>137153.9359657236</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>137153.9359657236</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>135834.4891657236</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>135854.4891657236</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>135842.4891657236</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>135799.5653657236</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>163384.4810657236</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>151361.4810657236</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>152596.5512657236</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>152585.5512657236</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>152563.5512657236</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>94546.3064657236</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>111811.3121657236</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -3619,14 +3619,10 @@
         <v>-16132.7842342764</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>89.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
@@ -3656,19 +3652,11 @@
         <v>-16132.7842342764</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="J99" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3697,772 +3685,650 @@
         <v>6217.585365723604</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C101" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F101" t="n">
+        <v>686.2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5531.385365723604</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F102" t="n">
+        <v>5766.1881</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5531.385365723604</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E103" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5531.385365723604</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="C104" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5552.385365723604</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C105" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="E105" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1346.3054</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4206.079965723604</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
         <v>89.3</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="C106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="D106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="E106" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4855.0789</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-648.9989342763965</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="D107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="E107" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3423.8072</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-648.9989342763965</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12362.5872</v>
+      </c>
+      <c r="G108" t="n">
+        <v>11713.5882657236</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21</v>
+      </c>
+      <c r="G109" t="n">
+        <v>11692.5882657236</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D110" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>21</v>
+      </c>
+      <c r="G110" t="n">
+        <v>11692.5882657236</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>91</v>
+      </c>
+      <c r="D111" t="n">
+        <v>91</v>
+      </c>
+      <c r="E111" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>39335.6319</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-27643.0436342764</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1168.0745</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-28811.1181342764</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5497.0197</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-28811.1181342764</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5054</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-23757.1181342764</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="C115" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D115" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="E115" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.2997</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-23757.1181342764</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>90</v>
+      </c>
+      <c r="D116" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="E116" t="n">
+        <v>90</v>
+      </c>
+      <c r="F116" t="n">
+        <v>13769.5281</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-37526.6462342764</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C117" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E117" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.5128</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-37527.1590342764</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="E118" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="F118" t="n">
+        <v>420.1886</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-37527.1590342764</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="J118" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="D119" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="E119" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12724.9743</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-24802.18473427639</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="J119" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E101" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F101" t="n">
-        <v>686.2</v>
-      </c>
-      <c r="G101" t="n">
-        <v>5531.385365723604</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C102" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D102" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E102" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F102" t="n">
-        <v>5766.1881</v>
-      </c>
-      <c r="G102" t="n">
-        <v>5531.385365723604</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E103" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F103" t="n">
-        <v>7999</v>
-      </c>
-      <c r="G103" t="n">
-        <v>5531.385365723604</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="C104" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="D104" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E104" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="F104" t="n">
-        <v>21</v>
-      </c>
-      <c r="G104" t="n">
-        <v>5552.385365723604</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C105" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="D105" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="E105" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1346.3054</v>
-      </c>
-      <c r="G105" t="n">
-        <v>4206.079965723604</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="C106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="D106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="E106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4855.0789</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-648.9989342763965</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="C107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="D107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>3423.8072</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-648.9989342763965</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="C108" t="n">
-        <v>92.3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="E108" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="F108" t="n">
-        <v>12362.5872</v>
-      </c>
-      <c r="G108" t="n">
-        <v>11713.5882657236</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="J108" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C109" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="D109" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="E109" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F109" t="n">
-        <v>21</v>
-      </c>
-      <c r="G109" t="n">
-        <v>11692.5882657236</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="C110" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="D110" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="E110" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="F110" t="n">
-        <v>21</v>
-      </c>
-      <c r="G110" t="n">
-        <v>11692.5882657236</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>91</v>
-      </c>
-      <c r="D111" t="n">
-        <v>91</v>
-      </c>
-      <c r="E111" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="F111" t="n">
-        <v>39335.6319</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-27643.0436342764</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>91.09999999999999</v>
-      </c>
-      <c r="J111" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="C112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="D112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="E112" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1168.0745</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-28811.1181342764</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="C113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="D113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="E113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="F113" t="n">
-        <v>5497.0197</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-28811.1181342764</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="J113" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C114" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="E114" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5054</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-23757.1181342764</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="C115" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="D115" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="E115" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.2997</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-23757.1181342764</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="J115" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="C116" t="n">
-        <v>90</v>
-      </c>
-      <c r="D116" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="E116" t="n">
-        <v>90</v>
-      </c>
-      <c r="F116" t="n">
-        <v>13769.5281</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-37526.6462342764</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C117" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D117" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E117" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.5128</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-37527.1590342764</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="C118" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="D118" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="E118" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>420.1886</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-37527.1590342764</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="C119" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="D119" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="E119" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="F119" t="n">
-        <v>12724.9743</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-24802.18473427639</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J119" t="n">
-        <v>89.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4491,11 +4357,13 @@
         <v>-29187.54533427639</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>91.8</v>
+      </c>
       <c r="J120" t="n">
-        <v>89.3</v>
+        <v>89.7</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4530,11 +4398,13 @@
         <v>-14237.54533427639</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>89</v>
+      </c>
       <c r="J121" t="n">
-        <v>89.3</v>
+        <v>89.7</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4569,11 +4439,13 @@
         <v>19079.08076572361</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>90.5</v>
+      </c>
       <c r="J122" t="n">
-        <v>89.3</v>
+        <v>89.7</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4612,7 +4484,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>89.3</v>
+        <v>89.7</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4647,11 +4519,13 @@
         <v>12781.08976572361</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>90.09999999999999</v>
+      </c>
       <c r="J124" t="n">
-        <v>89.3</v>
+        <v>89.7</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4686,11 +4560,13 @@
         <v>6281.089765723607</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>90</v>
+      </c>
       <c r="J125" t="n">
-        <v>89.3</v>
+        <v>89.7</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>

--- a/BackTest/2019-10-31 BackTest CTXC.xlsx
+++ b/BackTest/2019-10-31 BackTest CTXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M125"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>391.8037</v>
       </c>
       <c r="G2" t="n">
-        <v>2923.818165723616</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>6105.7594</v>
       </c>
       <c r="G3" t="n">
-        <v>9029.577565723615</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>15000</v>
       </c>
       <c r="G4" t="n">
-        <v>24029.57756572362</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>241.0971</v>
       </c>
       <c r="G5" t="n">
-        <v>24029.57756572362</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2743.3223</v>
       </c>
       <c r="G6" t="n">
-        <v>26772.89986572362</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1000</v>
       </c>
       <c r="G7" t="n">
-        <v>27772.89986572362</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>246.8148</v>
       </c>
       <c r="G8" t="n">
-        <v>28019.71466572362</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>26128.9828</v>
       </c>
       <c r="G9" t="n">
-        <v>54148.69746572361</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>25025.1042</v>
       </c>
       <c r="G10" t="n">
-        <v>79173.80166572361</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1991.5023</v>
       </c>
       <c r="G11" t="n">
-        <v>81165.30396572361</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>27260.304</v>
       </c>
       <c r="G12" t="n">
-        <v>108425.6079657236</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1500</v>
       </c>
       <c r="G13" t="n">
-        <v>106925.6079657236</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>18070.3106</v>
       </c>
       <c r="G14" t="n">
-        <v>124995.9185657236</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>10185.1529</v>
       </c>
       <c r="G15" t="n">
-        <v>124995.9185657236</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3319.699</v>
       </c>
       <c r="G16" t="n">
-        <v>124995.9185657236</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>105601.6007</v>
       </c>
       <c r="G17" t="n">
-        <v>230597.5192657236</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>102202.6241</v>
       </c>
       <c r="G18" t="n">
-        <v>128394.8951657236</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>211.0765</v>
       </c>
       <c r="G19" t="n">
-        <v>128605.9716657236</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7075.632</v>
       </c>
       <c r="G20" t="n">
-        <v>128605.9716657236</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2520.2569</v>
       </c>
       <c r="G21" t="n">
-        <v>126085.7147657236</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>27299.0468</v>
       </c>
       <c r="G22" t="n">
-        <v>153384.7615657236</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2900</v>
       </c>
       <c r="G23" t="n">
-        <v>156284.7615657236</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>19130.8256</v>
       </c>
       <c r="G24" t="n">
-        <v>137153.9359657236</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3408.5089</v>
       </c>
       <c r="G25" t="n">
-        <v>137153.9359657236</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1319.4468</v>
       </c>
       <c r="G26" t="n">
-        <v>135834.4891657236</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>135854.4891657236</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>135842.4891657236</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>42.9238</v>
       </c>
       <c r="G29" t="n">
-        <v>135799.5653657236</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>27584.9157</v>
       </c>
       <c r="G30" t="n">
-        <v>163384.4810657236</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>12023</v>
       </c>
       <c r="G31" t="n">
-        <v>151361.4810657236</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1235.0702</v>
       </c>
       <c r="G32" t="n">
-        <v>152596.5512657236</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>152585.5512657236</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>22</v>
       </c>
       <c r="G34" t="n">
-        <v>152563.5512657236</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>37992.6374</v>
       </c>
       <c r="G35" t="n">
-        <v>114570.9138657236</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>7492.3735</v>
       </c>
       <c r="G36" t="n">
-        <v>122063.2873657236</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>12</v>
       </c>
       <c r="G37" t="n">
-        <v>122051.2873657236</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>27504.9809</v>
       </c>
       <c r="G38" t="n">
-        <v>94546.3064657236</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>197.0356</v>
       </c>
       <c r="G39" t="n">
-        <v>94743.3420657236</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>10054.6196</v>
       </c>
       <c r="G40" t="n">
-        <v>104797.9616657236</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>7309.0392</v>
       </c>
       <c r="G41" t="n">
-        <v>112107.0008657236</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>295.6887</v>
       </c>
       <c r="G42" t="n">
-        <v>111811.3121657236</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2072.4563</v>
       </c>
       <c r="G43" t="n">
-        <v>113883.7684657236</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>12</v>
       </c>
       <c r="G44" t="n">
-        <v>113871.7684657236</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>3794.2591</v>
       </c>
       <c r="G45" t="n">
-        <v>117666.0275657236</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>14252.7182</v>
       </c>
       <c r="G46" t="n">
-        <v>103413.3093657236</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>26622.7662</v>
       </c>
       <c r="G47" t="n">
-        <v>130036.0755657236</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1594.6381</v>
       </c>
       <c r="G48" t="n">
-        <v>128441.4374657236</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>7212.4109</v>
       </c>
       <c r="G49" t="n">
-        <v>121229.0265657236</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>19.0647</v>
       </c>
       <c r="G50" t="n">
-        <v>121248.0912657236</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>121259.0912657236</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1722.649</v>
       </c>
       <c r="G52" t="n">
-        <v>119536.4422657236</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>34641.5357</v>
       </c>
       <c r="G53" t="n">
-        <v>154177.9779657236</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>8645.311900000001</v>
       </c>
       <c r="G54" t="n">
-        <v>145532.6660657236</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>53303.2999</v>
       </c>
       <c r="G55" t="n">
-        <v>92229.36616572361</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>11</v>
       </c>
       <c r="G56" t="n">
-        <v>92240.36616572361</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>4071.5833</v>
       </c>
       <c r="G57" t="n">
-        <v>88168.78286572361</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>49849.2888</v>
       </c>
       <c r="G58" t="n">
-        <v>38319.49406572361</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>8341.135899999999</v>
       </c>
       <c r="G59" t="n">
-        <v>38319.49406572361</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>8341.1358</v>
       </c>
       <c r="G60" t="n">
-        <v>46660.6298657236</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>27865.1302</v>
       </c>
       <c r="G61" t="n">
-        <v>46660.6298657236</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>5000</v>
       </c>
       <c r="G62" t="n">
-        <v>46660.6298657236</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>355.717</v>
       </c>
       <c r="G63" t="n">
-        <v>46304.91286572361</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>7028.7622</v>
       </c>
       <c r="G64" t="n">
-        <v>53333.6750657236</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>5178.4887</v>
       </c>
       <c r="G65" t="n">
-        <v>48155.1863657236</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2869.9921</v>
       </c>
       <c r="G66" t="n">
-        <v>45285.1942657236</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>321.0987</v>
       </c>
       <c r="G67" t="n">
-        <v>45285.1942657236</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>15000</v>
       </c>
       <c r="G68" t="n">
-        <v>30285.1942657236</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10552.5005</v>
       </c>
       <c r="G69" t="n">
-        <v>30285.1942657236</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>12450</v>
       </c>
       <c r="G70" t="n">
-        <v>17835.1942657236</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>9000</v>
       </c>
       <c r="G71" t="n">
-        <v>8835.1942657236</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1714.2042</v>
       </c>
       <c r="G72" t="n">
-        <v>8835.1942657236</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>872.7909</v>
       </c>
       <c r="G73" t="n">
-        <v>8835.1942657236</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1488.5905</v>
       </c>
       <c r="G74" t="n">
-        <v>8835.1942657236</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>4022.39</v>
       </c>
       <c r="G75" t="n">
-        <v>8835.1942657236</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>348.6201</v>
       </c>
       <c r="G76" t="n">
-        <v>8835.1942657236</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>54183.366</v>
       </c>
       <c r="G77" t="n">
-        <v>8835.1942657236</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>3560.276</v>
       </c>
       <c r="G78" t="n">
-        <v>5274.9182657236</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>895.8531</v>
       </c>
       <c r="G79" t="n">
-        <v>5274.9182657236</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>5494.0624</v>
       </c>
       <c r="G80" t="n">
-        <v>-219.1441342764001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2933.4108</v>
       </c>
       <c r="G81" t="n">
-        <v>-3152.5549342764</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>6373.186</v>
       </c>
       <c r="G82" t="n">
-        <v>-9525.7409342764</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>15100.5705</v>
       </c>
       <c r="G83" t="n">
-        <v>5574.829565723599</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>8481.891100000001</v>
       </c>
       <c r="G84" t="n">
-        <v>-2907.061534276401</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>1084.7422</v>
       </c>
       <c r="G85" t="n">
-        <v>-2907.061534276401</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>7137.1506</v>
       </c>
       <c r="G86" t="n">
-        <v>4230.089065723599</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>19703.7819</v>
       </c>
       <c r="G87" t="n">
-        <v>23933.8709657236</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>7553.7588</v>
       </c>
       <c r="G88" t="n">
-        <v>16380.1121657236</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,19 @@
         <v>80.2795</v>
       </c>
       <c r="G89" t="n">
-        <v>16460.3916657236</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>90.3</v>
+      </c>
+      <c r="I89" t="n">
+        <v>90.3</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3087,21 @@
         <v>5965.697</v>
       </c>
       <c r="G90" t="n">
-        <v>10494.6946657236</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3123,21 @@
         <v>7710.259</v>
       </c>
       <c r="G91" t="n">
-        <v>18204.9536657236</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3159,15 @@
         <v>16751.9497</v>
       </c>
       <c r="G92" t="n">
-        <v>1453.003965723601</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3189,15 @@
         <v>12919.7881</v>
       </c>
       <c r="G93" t="n">
-        <v>-11466.7841342764</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3219,15 @@
         <v>8232.539500000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-11466.7841342764</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3249,15 @@
         <v>5694.8592</v>
       </c>
       <c r="G95" t="n">
-        <v>-11466.7841342764</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3279,19 @@
         <v>500</v>
       </c>
       <c r="G96" t="n">
-        <v>-11466.7841342764</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="I96" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3313,21 @@
         <v>4500</v>
       </c>
       <c r="G97" t="n">
-        <v>-15966.7841342764</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3349,21 @@
         <v>166.0001</v>
       </c>
       <c r="G98" t="n">
-        <v>-16132.7842342764</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3385,23 @@
         <v>5614.6396</v>
       </c>
       <c r="G99" t="n">
-        <v>-16132.7842342764</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="I99" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3423,23 @@
         <v>22350.3696</v>
       </c>
       <c r="G100" t="n">
-        <v>6217.585365723604</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="I100" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3461,23 @@
         <v>686.2</v>
       </c>
       <c r="G101" t="n">
-        <v>5531.385365723604</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>91.09999999999999</v>
+      </c>
+      <c r="I101" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3499,23 @@
         <v>5766.1881</v>
       </c>
       <c r="G102" t="n">
-        <v>5531.385365723604</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="I102" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3537,23 @@
         <v>7999</v>
       </c>
       <c r="G103" t="n">
-        <v>5531.385365723604</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="I103" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3575,23 @@
         <v>21</v>
       </c>
       <c r="G104" t="n">
-        <v>5552.385365723604</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>90.40000000000001</v>
+      </c>
+      <c r="I104" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3613,21 @@
         <v>1346.3054</v>
       </c>
       <c r="G105" t="n">
-        <v>4206.079965723604</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3649,21 @@
         <v>4855.0789</v>
       </c>
       <c r="G106" t="n">
-        <v>-648.9989342763965</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3685,21 @@
         <v>3423.8072</v>
       </c>
       <c r="G107" t="n">
-        <v>-648.9989342763965</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3721,23 @@
         <v>12362.5872</v>
       </c>
       <c r="G108" t="n">
-        <v>11713.5882657236</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>89.3</v>
+      </c>
+      <c r="I108" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3759,21 @@
         <v>21</v>
       </c>
       <c r="G109" t="n">
-        <v>11692.5882657236</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3795,21 @@
         <v>21</v>
       </c>
       <c r="G110" t="n">
-        <v>11692.5882657236</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3831,21 @@
         <v>39335.6319</v>
       </c>
       <c r="G111" t="n">
-        <v>-27643.0436342764</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3867,21 @@
         <v>1168.0745</v>
       </c>
       <c r="G112" t="n">
-        <v>-28811.1181342764</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3903,21 @@
         <v>5497.0197</v>
       </c>
       <c r="G113" t="n">
-        <v>-28811.1181342764</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3939,21 @@
         <v>5054</v>
       </c>
       <c r="G114" t="n">
-        <v>-23757.1181342764</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3975,21 @@
         <v>0.2997</v>
       </c>
       <c r="G115" t="n">
-        <v>-23757.1181342764</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4011,21 @@
         <v>13769.5281</v>
       </c>
       <c r="G116" t="n">
-        <v>-37526.6462342764</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4047,21 @@
         <v>0.5128</v>
       </c>
       <c r="G117" t="n">
-        <v>-37527.1590342764</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,22 +4083,21 @@
         <v>420.1886</v>
       </c>
       <c r="G118" t="n">
-        <v>-37527.1590342764</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J118" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4313,26 +4119,21 @@
         <v>12724.9743</v>
       </c>
       <c r="G119" t="n">
-        <v>-24802.18473427639</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="J119" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
+        <v>90.2</v>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4354,26 +4155,21 @@
         <v>4385.3606</v>
       </c>
       <c r="G120" t="n">
-        <v>-29187.54533427639</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="J120" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
+        <v>90.2</v>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4395,26 +4191,21 @@
         <v>14950</v>
       </c>
       <c r="G121" t="n">
-        <v>-14237.54533427639</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>89</v>
-      </c>
-      <c r="J121" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
+        <v>90.2</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4436,26 +4227,21 @@
         <v>33316.6261</v>
       </c>
       <c r="G122" t="n">
-        <v>19079.08076572361</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="J122" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
+        <v>90.2</v>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4477,24 +4263,21 @@
         <v>5600</v>
       </c>
       <c r="G123" t="n">
-        <v>13479.08076572361</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4516,26 +4299,21 @@
         <v>697.991</v>
       </c>
       <c r="G124" t="n">
-        <v>12781.08976572361</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="J124" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
+        <v>90.2</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4557,26 +4335,21 @@
         <v>6500</v>
       </c>
       <c r="G125" t="n">
-        <v>6281.089765723607</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>90</v>
-      </c>
-      <c r="J125" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
+        <v>90.2</v>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
